--- a/dados/brazil acessorios.xlsx
+++ b/dados/brazil acessorios.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,15 +446,25 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>modelo</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>politica</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>full</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>tipo</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>link</t>
         </is>
@@ -471,17 +481,27 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:69516017#searchVariation=MLB21392652&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=30d1c178-11ee-4d44-862a-c92e57cff1cc</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:69516017#searchVariation=MLB21392652&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=bc0a3025-9209-4702-ab14-a1d99cd4f21e</t>
         </is>
       </c>
     </row>
@@ -496,17 +516,23 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:69516017#searchVariation=MLB24834408&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=30d1c178-11ee-4d44-862a-c92e57cff1cc</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:69516017#searchVariation=MLB24834408&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=bc0a3025-9209-4702-ab14-a1d99cd4f21e</t>
         </is>
       </c>
     </row>
@@ -521,17 +547,27 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:69516017#searchVariation=MLB21562641&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=30d1c178-11ee-4d44-862a-c92e57cff1cc</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:69516017#searchVariation=MLB21562641&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=bc0a3025-9209-4702-ab14-a1d99cd4f21e</t>
         </is>
       </c>
     </row>
@@ -546,17 +582,23 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/jfa-fonte-carregador-storm-lite-60a-3000-w-preto/p/MLB23456525?pdp_filters=seller_id:69516017#searchVariation=MLB23456525&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=30d1c178-11ee-4d44-862a-c92e57cff1cc</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/jfa-fonte-carregador-storm-lite-60a-3000-w-preto/p/MLB23456525?pdp_filters=seller_id:69516017#searchVariation=MLB23456525&amp;position=8&amp;search_layout=stack&amp;type=product&amp;tracking_id=bc0a3025-9209-4702-ab14-a1d99cd4f21e</t>
         </is>
       </c>
     </row>
@@ -571,17 +613,23 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:69516017#searchVariation=MLB21320712&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=30d1c178-11ee-4d44-862a-c92e57cff1cc</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:69516017#searchVariation=MLB21320712&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=bc0a3025-9209-4702-ab14-a1d99cd4f21e</t>
         </is>
       </c>
     </row>
@@ -596,17 +644,27 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120A LITE</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:69516017#searchVariation=MLB23998473&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=30d1c178-11ee-4d44-862a-c92e57cff1cc</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:69516017#searchVariation=MLB23998473&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=bc0a3025-9209-4702-ab14-a1d99cd4f21e</t>
         </is>
       </c>
     </row>
@@ -621,17 +679,27 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 40A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-40-amperes-jfa-storm-red-line-cca-sci-smart-cor-preto/p/MLB21621306?pdp_filters=seller_id:69516017#searchVariation=MLB21621306&amp;position=8&amp;search_layout=stack&amp;type=product&amp;tracking_id=30d1c178-11ee-4d44-862a-c92e57cff1cc</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-40-amperes-jfa-storm-red-line-cca-sci-smart-cor-preto/p/MLB21621306?pdp_filters=seller_id:69516017#searchVariation=MLB21621306&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=bc0a3025-9209-4702-ab14-a1d99cd4f21e</t>
         </is>
       </c>
     </row>
@@ -646,17 +714,23 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2988769615-processador-de-audio-j4-redline-jfa-com-voltimetro-_JM#position%3D10%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D30d1c178-11ee-4d44-862a-c92e57cff1cc</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2988769615-processador-de-audio-j4-redline-jfa-com-voltimetro-_JM#position%3D10%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbc0a3025-9209-4702-ab14-a1d99cd4f21e</t>
         </is>
       </c>
     </row>
@@ -671,17 +745,23 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3274636173-filtro-anti-ruido-jfa-rca-eletromagnetico-stereo-premium-_JM#position%3D11%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D30d1c178-11ee-4d44-862a-c92e57cff1cc</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3274636173-filtro-anti-ruido-jfa-rca-eletromagnetico-stereo-premium-_JM#position%3D11%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbc0a3025-9209-4702-ab14-a1d99cd4f21e</t>
         </is>
       </c>
     </row>
@@ -696,17 +776,23 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/processador-de-som-carro-audio-digital-jfa-j4-pro-red-12v/p/MLB26904269?pdp_filters=seller_id:69516017#searchVariation=MLB26904269&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=30d1c178-11ee-4d44-862a-c92e57cff1cc</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/processador-de-som-carro-audio-digital-jfa-j4-pro-red-12v/p/MLB26904269?pdp_filters=seller_id:69516017#searchVariation=MLB26904269&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=bc0a3025-9209-4702-ab14-a1d99cd4f21e</t>
         </is>
       </c>
     </row>
@@ -721,17 +807,23 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3260003183-processador-digital-j4-redline-equalizador-profissional-jfa-_JM#position%3D12%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D30d1c178-11ee-4d44-862a-c92e57cff1cc</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3260003183-processador-digital-j4-redline-equalizador-profissional-jfa-_JM#position%3D12%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbc0a3025-9209-4702-ab14-a1d99cd4f21e</t>
         </is>
       </c>
     </row>
@@ -746,17 +838,23 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3280849761-fonte-automotiva-jfa-120-bivolt-voltimetro-digital-som-_JM#position%3D13%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D30d1c178-11ee-4d44-862a-c92e57cff1cc</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3280849761-fonte-automotiva-jfa-120-bivolt-voltimetro-digital-som-_JM#position%3D13%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbc0a3025-9209-4702-ab14-a1d99cd4f21e</t>
         </is>
       </c>
     </row>
@@ -771,17 +869,23 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3280955185-controle-longa-distancia-jfa-redline-wr-p-aparelho-original-_JM#position%3D14%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D30d1c178-11ee-4d44-862a-c92e57cff1cc</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3280955185-controle-longa-distancia-jfa-redline-wr-p-aparelho-original-_JM#position%3D14%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbc0a3025-9209-4702-ab14-a1d99cd4f21e</t>
         </is>
       </c>
     </row>
@@ -796,17 +900,27 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3391324489-fonte-carregador-jfa-bob-storm-200a-bivolt-automatico-voltim-_JM#position%3D15%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D30d1c178-11ee-4d44-862a-c92e57cff1cc</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3391324489-fonte-carregador-jfa-bob-storm-200a-bivolt-automatico-voltim-_JM#position%3D15%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbc0a3025-9209-4702-ab14-a1d99cd4f21e</t>
         </is>
       </c>
     </row>

--- a/dados/brazil acessorios.xlsx
+++ b/dados/brazil acessorios.xlsx
@@ -441,12 +441,12 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>modelo</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>preco</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>modelo</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -476,14 +476,14 @@
           <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>679.99</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>FONTE 120A</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
           <t>Acima</t>
@@ -501,7 +501,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:69516017#searchVariation=MLB21392652&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=bc0a3025-9209-4702-ab14-a1d99cd4f21e</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:69516017#searchVariation=MLB21392652&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=12b5a73c-7716-437a-9955-8e26d5461b5c</t>
         </is>
       </c>
     </row>
@@ -511,15 +511,19 @@
           <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>695</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>NA</t>
@@ -532,7 +536,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:69516017#searchVariation=MLB24834408&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=bc0a3025-9209-4702-ab14-a1d99cd4f21e</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:69516017#searchVariation=MLB24834408&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=12b5a73c-7716-437a-9955-8e26d5461b5c</t>
         </is>
       </c>
     </row>
@@ -542,14 +546,14 @@
           <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>443.33</v>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>FONTE 90 BOB</t>
-        </is>
-      </c>
       <c r="D4" t="inlineStr">
         <is>
           <t>Acima</t>
@@ -567,7 +571,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:69516017#searchVariation=MLB21562641&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=bc0a3025-9209-4702-ab14-a1d99cd4f21e</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:69516017#searchVariation=MLB21562641&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=12b5a73c-7716-437a-9955-8e26d5461b5c</t>
         </is>
       </c>
     </row>
@@ -577,15 +581,19 @@
           <t xml:space="preserve"> JFA Fonte Carregador Storm Lite 60A 3000 W Preto</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>FONTE 60A LITE</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
         <v>408.22</v>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>NA</t>
@@ -598,7 +606,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/jfa-fonte-carregador-storm-lite-60a-3000-w-preto/p/MLB23456525?pdp_filters=seller_id:69516017#searchVariation=MLB23456525&amp;position=8&amp;search_layout=stack&amp;type=product&amp;tracking_id=bc0a3025-9209-4702-ab14-a1d99cd4f21e</t>
+          <t>https://www.mercadolivre.com.br/jfa-fonte-carregador-storm-lite-60a-3000-w-preto/p/MLB23456525?pdp_filters=seller_id:69516017#searchVariation=MLB23456525&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=12b5a73c-7716-437a-9955-8e26d5461b5c</t>
         </is>
       </c>
     </row>
@@ -608,15 +616,19 @@
           <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
         <v>500</v>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr">
         <is>
           <t>NA</t>
@@ -629,7 +641,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:69516017#searchVariation=MLB21320712&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=bc0a3025-9209-4702-ab14-a1d99cd4f21e</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:69516017#searchVariation=MLB21320712&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=12b5a73c-7716-437a-9955-8e26d5461b5c</t>
         </is>
       </c>
     </row>
@@ -639,14 +651,14 @@
           <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt Cor Preto</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>FONTE 120A LITE</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
         <v>560.88</v>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>FONTE 120A LITE</t>
-        </is>
-      </c>
       <c r="D7" t="inlineStr">
         <is>
           <t>Acima</t>
@@ -664,7 +676,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:69516017#searchVariation=MLB23998473&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=bc0a3025-9209-4702-ab14-a1d99cd4f21e</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:69516017#searchVariation=MLB23998473&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=12b5a73c-7716-437a-9955-8e26d5461b5c</t>
         </is>
       </c>
     </row>
@@ -674,14 +686,14 @@
           <t>Fonte Automotiva 40 Amperes Jfa Storm Red Line Cca Sci Smart Cor Preto</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>FONTE 40A STORM</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
         <v>422.22</v>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>FONTE 40A</t>
-        </is>
-      </c>
       <c r="D8" t="inlineStr">
         <is>
           <t>Acima</t>
@@ -699,7 +711,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-40-amperes-jfa-storm-red-line-cca-sci-smart-cor-preto/p/MLB21621306?pdp_filters=seller_id:69516017#searchVariation=MLB21621306&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=bc0a3025-9209-4702-ab14-a1d99cd4f21e</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-40-amperes-jfa-storm-red-line-cca-sci-smart-cor-preto/p/MLB21621306?pdp_filters=seller_id:69516017#searchVariation=MLB21621306&amp;position=8&amp;search_layout=stack&amp;type=product&amp;tracking_id=12b5a73c-7716-437a-9955-8e26d5461b5c</t>
         </is>
       </c>
     </row>
@@ -709,13 +721,13 @@
           <t>Processador De Áudio J4 Redline Jfa Com Voltímetro</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
         <v>299</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
@@ -730,7 +742,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2988769615-processador-de-audio-j4-redline-jfa-com-voltimetro-_JM#position%3D10%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbc0a3025-9209-4702-ab14-a1d99cd4f21e</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2988769615-processador-de-audio-j4-redline-jfa-com-voltimetro-_JM#position%3D10%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D12b5a73c-7716-437a-9955-8e26d5461b5c</t>
         </is>
       </c>
     </row>
@@ -740,13 +752,13 @@
           <t xml:space="preserve">Filtro Anti-ruido Jfa Rca Eletromagnético Stereo Premium </t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
         <v>70</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
@@ -761,7 +773,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3274636173-filtro-anti-ruido-jfa-rca-eletromagnetico-stereo-premium-_JM#position%3D11%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbc0a3025-9209-4702-ab14-a1d99cd4f21e</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3274636173-filtro-anti-ruido-jfa-rca-eletromagnetico-stereo-premium-_JM#position%3D11%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D12b5a73c-7716-437a-9955-8e26d5461b5c</t>
         </is>
       </c>
     </row>
@@ -771,13 +783,13 @@
           <t>Processador De Som Carro Audio Digital Jfa J4 Pro Red 12v</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
         <v>257</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
@@ -792,7 +804,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/processador-de-som-carro-audio-digital-jfa-j4-pro-red-12v/p/MLB26904269?pdp_filters=seller_id:69516017#searchVariation=MLB26904269&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=bc0a3025-9209-4702-ab14-a1d99cd4f21e</t>
+          <t>https://www.mercadolivre.com.br/processador-de-som-carro-audio-digital-jfa-j4-pro-red-12v/p/MLB26904269?pdp_filters=seller_id:69516017#searchVariation=MLB26904269&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=12b5a73c-7716-437a-9955-8e26d5461b5c</t>
         </is>
       </c>
     </row>
@@ -802,13 +814,13 @@
           <t>Processador Digital J4 Redline Equalizador Profissional Jfa</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
         <v>265</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
@@ -823,7 +835,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3260003183-processador-digital-j4-redline-equalizador-profissional-jfa-_JM#position%3D12%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbc0a3025-9209-4702-ab14-a1d99cd4f21e</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3260003183-processador-digital-j4-redline-equalizador-profissional-jfa-_JM#position%3D12%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D12b5a73c-7716-437a-9955-8e26d5461b5c</t>
         </is>
       </c>
     </row>
@@ -833,15 +845,19 @@
           <t>Fonte Automotiva Jfa 120 Bivolt Voltímetro Digital Som</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
         <v>805</v>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E13" t="inlineStr">
         <is>
           <t>NA</t>
@@ -854,7 +870,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3280849761-fonte-automotiva-jfa-120-bivolt-voltimetro-digital-som-_JM#position%3D13%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbc0a3025-9209-4702-ab14-a1d99cd4f21e</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3280849761-fonte-automotiva-jfa-120-bivolt-voltimetro-digital-som-_JM#position%3D13%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D12b5a73c-7716-437a-9955-8e26d5461b5c</t>
         </is>
       </c>
     </row>
@@ -864,13 +880,13 @@
           <t>Controle Longa Distancia Jfa Redline Wr P Aparelho Original</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
         <v>110</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
@@ -885,7 +901,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3280955185-controle-longa-distancia-jfa-redline-wr-p-aparelho-original-_JM#position%3D14%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbc0a3025-9209-4702-ab14-a1d99cd4f21e</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3280955185-controle-longa-distancia-jfa-redline-wr-p-aparelho-original-_JM#position%3D14%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D12b5a73c-7716-437a-9955-8e26d5461b5c</t>
         </is>
       </c>
     </row>
@@ -895,14 +911,14 @@
           <t>Fonte Carregador Jfa Bob Storm 200a Bivolt Automatico Voltim</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
         <v>695</v>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>FONTE 200 BOB</t>
-        </is>
-      </c>
       <c r="D15" t="inlineStr">
         <is>
           <t>Acima</t>
@@ -920,7 +936,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3391324489-fonte-carregador-jfa-bob-storm-200a-bivolt-automatico-voltim-_JM#position%3D15%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbc0a3025-9209-4702-ab14-a1d99cd4f21e</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3391324489-fonte-carregador-jfa-bob-storm-200a-bivolt-automatico-voltim-_JM#position%3D15%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D12b5a73c-7716-437a-9955-8e26d5461b5c</t>
         </is>
       </c>
     </row>

--- a/dados/brazil acessorios.xlsx
+++ b/dados/brazil acessorios.xlsx
@@ -501,7 +501,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:69516017#searchVariation=MLB21392652&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=12b5a73c-7716-437a-9955-8e26d5461b5c</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:69516017#searchVariation=MLB21392652&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=32ac337a-c99e-48f7-ba90-5320f97ba5b6</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:69516017#searchVariation=MLB24834408&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=12b5a73c-7716-437a-9955-8e26d5461b5c</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:69516017#searchVariation=MLB24834408&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=32ac337a-c99e-48f7-ba90-5320f97ba5b6</t>
         </is>
       </c>
     </row>
@@ -571,7 +571,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:69516017#searchVariation=MLB21562641&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=12b5a73c-7716-437a-9955-8e26d5461b5c</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:69516017#searchVariation=MLB21562641&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=32ac337a-c99e-48f7-ba90-5320f97ba5b6</t>
         </is>
       </c>
     </row>
@@ -606,7 +606,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/jfa-fonte-carregador-storm-lite-60a-3000-w-preto/p/MLB23456525?pdp_filters=seller_id:69516017#searchVariation=MLB23456525&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=12b5a73c-7716-437a-9955-8e26d5461b5c</t>
+          <t>https://www.mercadolivre.com.br/jfa-fonte-carregador-storm-lite-60a-3000-w-preto/p/MLB23456525?pdp_filters=seller_id:69516017#searchVariation=MLB23456525&amp;position=8&amp;search_layout=stack&amp;type=product&amp;tracking_id=32ac337a-c99e-48f7-ba90-5320f97ba5b6</t>
         </is>
       </c>
     </row>
@@ -641,7 +641,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:69516017#searchVariation=MLB21320712&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=12b5a73c-7716-437a-9955-8e26d5461b5c</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:69516017#searchVariation=MLB21320712&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=32ac337a-c99e-48f7-ba90-5320f97ba5b6</t>
         </is>
       </c>
     </row>
@@ -676,7 +676,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:69516017#searchVariation=MLB23998473&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=12b5a73c-7716-437a-9955-8e26d5461b5c</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:69516017#searchVariation=MLB23998473&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=32ac337a-c99e-48f7-ba90-5320f97ba5b6</t>
         </is>
       </c>
     </row>
@@ -711,7 +711,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-40-amperes-jfa-storm-red-line-cca-sci-smart-cor-preto/p/MLB21621306?pdp_filters=seller_id:69516017#searchVariation=MLB21621306&amp;position=8&amp;search_layout=stack&amp;type=product&amp;tracking_id=12b5a73c-7716-437a-9955-8e26d5461b5c</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-40-amperes-jfa-storm-red-line-cca-sci-smart-cor-preto/p/MLB21621306?pdp_filters=seller_id:69516017#searchVariation=MLB21621306&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=32ac337a-c99e-48f7-ba90-5320f97ba5b6</t>
         </is>
       </c>
     </row>
@@ -742,7 +742,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2988769615-processador-de-audio-j4-redline-jfa-com-voltimetro-_JM#position%3D10%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D12b5a73c-7716-437a-9955-8e26d5461b5c</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2988769615-processador-de-audio-j4-redline-jfa-com-voltimetro-_JM#position%3D10%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D32ac337a-c99e-48f7-ba90-5320f97ba5b6</t>
         </is>
       </c>
     </row>
@@ -773,7 +773,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3274636173-filtro-anti-ruido-jfa-rca-eletromagnetico-stereo-premium-_JM#position%3D11%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D12b5a73c-7716-437a-9955-8e26d5461b5c</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3274636173-filtro-anti-ruido-jfa-rca-eletromagnetico-stereo-premium-_JM#position%3D11%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D32ac337a-c99e-48f7-ba90-5320f97ba5b6</t>
         </is>
       </c>
     </row>
@@ -804,7 +804,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/processador-de-som-carro-audio-digital-jfa-j4-pro-red-12v/p/MLB26904269?pdp_filters=seller_id:69516017#searchVariation=MLB26904269&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=12b5a73c-7716-437a-9955-8e26d5461b5c</t>
+          <t>https://www.mercadolivre.com.br/processador-de-som-carro-audio-digital-jfa-j4-pro-red-12v/p/MLB26904269?pdp_filters=seller_id:69516017#searchVariation=MLB26904269&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=32ac337a-c99e-48f7-ba90-5320f97ba5b6</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3260003183-processador-digital-j4-redline-equalizador-profissional-jfa-_JM#position%3D12%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D12b5a73c-7716-437a-9955-8e26d5461b5c</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3260003183-processador-digital-j4-redline-equalizador-profissional-jfa-_JM#position%3D12%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D32ac337a-c99e-48f7-ba90-5320f97ba5b6</t>
         </is>
       </c>
     </row>
@@ -870,7 +870,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3280849761-fonte-automotiva-jfa-120-bivolt-voltimetro-digital-som-_JM#position%3D13%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D12b5a73c-7716-437a-9955-8e26d5461b5c</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3280849761-fonte-automotiva-jfa-120-bivolt-voltimetro-digital-som-_JM#position%3D13%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D32ac337a-c99e-48f7-ba90-5320f97ba5b6</t>
         </is>
       </c>
     </row>
@@ -882,13 +882,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>CONTROLE WR</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>110</v>
-      </c>
-      <c r="D14" t="inlineStr"/>
+        <v>120</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E14" t="inlineStr">
         <is>
           <t>NA</t>
@@ -901,7 +905,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3280955185-controle-longa-distancia-jfa-redline-wr-p-aparelho-original-_JM#position%3D14%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D12b5a73c-7716-437a-9955-8e26d5461b5c</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3280955185-controle-longa-distancia-jfa-redline-wr-p-aparelho-original-_JM#position%3D14%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D32ac337a-c99e-48f7-ba90-5320f97ba5b6</t>
         </is>
       </c>
     </row>
@@ -936,7 +940,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3391324489-fonte-carregador-jfa-bob-storm-200a-bivolt-automatico-voltim-_JM#position%3D15%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D12b5a73c-7716-437a-9955-8e26d5461b5c</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3391324489-fonte-carregador-jfa-bob-storm-200a-bivolt-automatico-voltim-_JM#position%3D15%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D32ac337a-c99e-48f7-ba90-5320f97ba5b6</t>
         </is>
       </c>
     </row>
